--- a/comapring_results/comparing_results_without_HB.xlsx
+++ b/comapring_results/comparing_results_without_HB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielfadlon/Documents/daniel_1/IDC/project_with_industry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielfadlon/Documents/daniel_1/IDC/project_with_industry/Salesforce/SalesForceProject/comapring_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3852C2EA-6131-FE44-9EBD-9FD21CEB3CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D78CABA-6DCF-AE48-B553-4A7FB721F11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="1" xr2:uid="{3A59B011-C639-554B-AD58-EB79157CFF24}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20280" activeTab="1" xr2:uid="{3A59B011-C639-554B-AD58-EB79157CFF24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,19 @@
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$12</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$8:$E$8</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$9:$E$9</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$11</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$A$12</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$A$13</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$A$14</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$10:$E$10</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$11:$E$11</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$B$12:$E$12</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$B$13:$E$13</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$13</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$14:$E$14</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$7:$E$7</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$B$8:$E$8</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$B$9:$E$9</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$14</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$10:$E$10</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$11:$E$11</definedName>
@@ -32,7 +44,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId3"/>
+    <pivotCache cacheId="3" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t xml:space="preserve">dataset name </t>
   </si>
@@ -61,9 +73,6 @@
   </si>
   <si>
     <t>third_dataset</t>
-  </si>
-  <si>
-    <t>real_data</t>
   </si>
   <si>
     <t>second_dataset</t>
@@ -106,6 +115,12 @@
   </si>
   <si>
     <t>Min of fourth_dataset</t>
+  </si>
+  <si>
+    <t>heuristic m-TSP</t>
+  </si>
+  <si>
+    <t>first_dataset</t>
   </si>
 </sst>
 </file>
@@ -216,7 +231,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> time without HB</a:t>
+              <a:t> time without Home Base</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -337,7 +352,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>real_data</c:v>
+                  <c:v>first_dataset</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>second_dataset</c:v>
@@ -401,7 +416,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>real_data</c:v>
+                  <c:v>first_dataset</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>second_dataset</c:v>
@@ -465,7 +480,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>real_data</c:v>
+                  <c:v>first_dataset</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>second_dataset</c:v>
@@ -529,7 +544,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>real_data</c:v>
+                  <c:v>first_dataset</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>second_dataset</c:v>
@@ -601,7 +616,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>real_data</c:v>
+                  <c:v>first_dataset</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>second_dataset</c:v>
@@ -651,7 +666,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>huristic m-TSP</c:v>
+                  <c:v>heuristic m-TSP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -673,7 +688,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>real_data</c:v>
+                  <c:v>first_dataset</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>second_dataset</c:v>
@@ -745,7 +760,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>real_data</c:v>
+                  <c:v>first_dataset</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>second_dataset</c:v>
@@ -983,8 +998,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.16178070142636261"/>
           <c:y val="0.8598481594759334"/>
-          <c:w val="0.66817917247232383"/>
-          <c:h val="9.8829526474479928E-2"/>
+          <c:w val="0.63372128943308059"/>
+          <c:h val="6.3137675972321644E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1744,7 +1759,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E31DA519-9FE8-4A42-AED8-51A1B649DE1E}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E31DA519-9FE8-4A42-AED8-51A1B649DE1E}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -2153,24 +2168,24 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>502</v>
@@ -2187,7 +2202,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>719</v>
@@ -2204,7 +2219,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>535</v>
@@ -2221,7 +2236,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>548</v>
@@ -2238,7 +2253,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>590</v>
@@ -2255,7 +2270,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>671</v>
@@ -2272,7 +2287,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
         <v>535</v>
@@ -2289,7 +2304,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1">
         <v>502</v>
@@ -2313,8 +2328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60DD3D5-0EAA-0640-8AE9-5E7767E9CCB6}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2391,10 +2406,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>2</v>
@@ -2405,7 +2420,7 @@
     </row>
     <row r="8" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="5">
         <v>535</v>
@@ -2422,7 +2437,7 @@
     </row>
     <row r="9" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5">
         <v>502</v>
@@ -2439,7 +2454,7 @@
     </row>
     <row r="10" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="5">
         <v>719</v>
@@ -2456,7 +2471,7 @@
     </row>
     <row r="11" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="5">
         <v>535</v>
@@ -2473,7 +2488,7 @@
     </row>
     <row r="12" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5">
         <v>548</v>
@@ -2490,7 +2505,7 @@
     </row>
     <row r="13" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B13" s="5">
         <v>590</v>
@@ -2507,7 +2522,7 @@
     </row>
     <row r="14" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5">
         <v>671</v>
